--- a/tests/testthat/_snaps/knitxl/plot2.xlsx
+++ b/tests/testthat/_snaps/knitxl/plot2.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <si>
+    <t xml:space="preserve">plot(1:3, 1:3); setNames(letters, LETTERS)</t>
+  </si>
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -175,13 +178,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,8 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,7 +229,7 @@
     <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
       <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:col>
       <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
-      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">27</xdr:row>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">2</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
     <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="6400800" cy="6400800"/>
@@ -535,211 +544,216 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B45" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B47" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B48" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="B49" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="B50" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="B51" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="B52" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+      <c r="B53" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+      <c r="B54" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B55" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
+      <c r="B56" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
+      <c r="B57" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
+      <c r="B58" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
+      <c r="B59" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
+      <c r="B60" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
+      <c r="B61" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
+      <c r="B62" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
         <v>51</v>
+      </c>
+      <c r="B63" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/_snaps/knitxl/plot2.xlsx
+++ b/tests/testthat/_snaps/knitxl/plot2.xlsx
@@ -178,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -191,6 +191,17 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,13 +219,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,210 +567,210 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>52</v>
       </c>
     </row>

--- a/tests/testthat/_snaps/knitxl/plot2.xlsx
+++ b/tests/testthat/_snaps/knitxl/plot2.xlsx
@@ -557,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
